--- a/TC-3.xlsx
+++ b/TC-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Documents/GitHub/TestingAplicaciones-FFC-TPO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12EAD3-FF4F-764D-9D7E-4C70C2FC7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDB07A-8449-9C4C-8BD8-CA3C2AD817F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Iniciar_sesion" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Cutomer is logged in</t>
+  </si>
+  <si>
+    <t>Holaaa</t>
   </si>
 </sst>
 </file>
@@ -607,20 +610,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -653,107 +644,119 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1073,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D6006-EAE3-A54D-886D-7464F21B09D4}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:N7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1087,7 @@
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,444 +1097,447 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E1" s="51"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>2.1</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
-    </row>
-    <row r="8" spans="1:14" ht="38" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="48"/>
+    </row>
+    <row r="8" spans="1:16" ht="38" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="20" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="N8" s="48"/>
+    </row>
+    <row r="9" spans="1:16" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="20" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:14" ht="46" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="N9" s="48"/>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="46" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="18">
         <v>3</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="17"/>
+      <c r="G10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="29" t="s">
+      <c r="B11" s="17"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30" t="s">
+      <c r="M11" s="22"/>
+      <c r="N11" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D12" s="28"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="29" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D12" s="21"/>
+      <c r="E12" s="9"/>
+      <c r="G12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="30" t="s">
+      <c r="M12" s="22"/>
+      <c r="N12" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="G13" s="29" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="G13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="40" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F16" s="13"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="24"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F16" s="9"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="49">
+      <c r="A18" s="42">
         <v>1</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="G18" s="53" t="s">
+      <c r="E18" s="44"/>
+      <c r="G18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53" t="s">
+      <c r="J18" s="46"/>
+      <c r="K18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53" t="s">
+      <c r="L18" s="46"/>
+      <c r="M18" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="53"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.2">
-      <c r="A19" s="49">
+      <c r="A19" s="42">
         <v>2</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52" t="s">
+      <c r="E19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="49">
+      <c r="A20" s="42">
         <v>3</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
+      <c r="E20" s="42"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/TC-3.xlsx
+++ b/TC-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Documents/GitHub/TestingAplicaciones-FFC-TPO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDB07A-8449-9C4C-8BD8-CA3C2AD817F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B7F5AD-1224-D14C-A6DD-CC2FF1B609D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Cutomer is logged in</t>
-  </si>
-  <si>
-    <t>Holaaa</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D6006-EAE3-A54D-886D-7464F21B09D4}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
@@ -1087,7 +1084,7 @@
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1099,7 @@
       </c>
       <c r="E1" s="51"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1110,7 @@
       <c r="D2" s="52"/>
       <c r="E2" s="53"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1130,7 @@
       <c r="K3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F4" s="10"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1144,7 +1141,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -1164,8 +1161,8 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1186,7 @@
       <c r="M7" s="49"/>
       <c r="N7" s="48"/>
     </row>
-    <row r="8" spans="1:16" ht="38" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="38" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -1219,7 +1216,7 @@
       </c>
       <c r="N8" s="48"/>
     </row>
-    <row r="9" spans="1:16" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -1246,11 +1243,8 @@
         <v>25</v>
       </c>
       <c r="N9" s="48"/>
-      <c r="P9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="46" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" ht="46" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>3</v>
       </c>
@@ -1286,7 +1280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>4</v>
       </c>
@@ -1317,7 +1311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D12" s="21"/>
       <c r="E12" s="9"/>
       <c r="G12" s="22" t="s">
@@ -1343,7 +1337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>32</v>
       </c>
@@ -1376,7 +1370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
@@ -1391,7 +1385,7 @@
       <c r="M14" s="32"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>35</v>
       </c>
@@ -1412,7 +1406,7 @@
       <c r="M15" s="32"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F16" s="9"/>
       <c r="G16" s="32"/>
       <c r="H16" s="17"/>
